--- a/dict_format.xlsx
+++ b/dict_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Bengali-Dictionary-BeBlunt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\bn-dict-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164D69D2-F5DB-4EE8-BB16-0A7E2064C0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A578654-ACEC-4DBF-9E01-234E2E6132AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4F2881E8-B4A3-4745-8174-944EDD9C24AC}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4F2881E8-B4A3-4745-8174-944EDD9C24AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>word</t>
   </si>
@@ -63,33 +63,9 @@
     <t>part_speech</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>adj</t>
-  </si>
-  <si>
-    <t>adv</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>conj</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>math</t>
   </si>
   <si>
-    <t>med</t>
-  </si>
-  <si>
     <t>chem</t>
   </si>
   <si>
@@ -120,33 +96,89 @@
     <t>etymology</t>
   </si>
   <si>
-    <t>Sans</t>
-  </si>
-  <si>
-    <t>Pers</t>
-  </si>
-  <si>
-    <t>Arab</t>
-  </si>
-  <si>
-    <t>(lang family) word</t>
-  </si>
-  <si>
-    <t>Burm</t>
-  </si>
-  <si>
     <t>(sense #) meaning</t>
   </si>
   <si>
-    <t>(@)word</t>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>&lt;dict&gt;:: {&lt;int&gt;: &lt;str&gt;}</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>Value contained</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>stores the entry</t>
+  </si>
+  <si>
+    <t>Input remarks</t>
+  </si>
+  <si>
+    <t>Radio-select:: Sanskrit (Totsomo), Sanskrit (Todbhobo), Urdu, Hindi, English, Persian, Arabic, Burmese</t>
+  </si>
+  <si>
+    <t>n, v, adj, adv, prep, conj, int</t>
+  </si>
+  <si>
+    <t>`@word</t>
+  </si>
+  <si>
+    <t>med, math, engg, hist, geo, pol, lit</t>
+  </si>
+  <si>
+    <t>sorted</t>
+  </si>
+  <si>
+    <t>Medicine, Math, Engineering, History, Geography, Political Science, Literature</t>
+  </si>
+  <si>
+    <t>sorted in</t>
+  </si>
+  <si>
+    <t>Form Input asked</t>
+  </si>
+  <si>
+    <t>Usage notes based on the nature of the word</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Links to antonyms</t>
+  </si>
+  <si>
+    <t>Link to antonyms</t>
+  </si>
+  <si>
+    <t>&lt;dict&gt;:: {&lt;word_hash&gt;: &lt;weight&gt;}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,9 +206,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,6 +546,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -539,162 +577,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA29C8C-FF02-4561-98A3-A02C83578E70}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="105" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>